--- a/data/hotels_by_city/Houston/Houston_shard_343.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_343.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56907-d1197378-Reviews-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,876 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r567590870-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>56907</t>
+  </si>
+  <si>
+    <t>1197378</t>
+  </si>
+  <si>
+    <t>567590870</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Average in every respect</t>
+  </si>
+  <si>
+    <t>It’s clean enough.  The bed looks a little worn.  There is a tremendous perfume smell that pervades the lobby.  The room not as much.  It has its own unique smell.  This property is tired and most of the parking is in a back lot where I don’t feel my vehicle is as secure.  Winnie is a small town right on the freeway.  You might find some crawfish here for dinner.  Not much in the way of entertainment.  The room is reasonably quiet which is a big plus.  I would have to be pretty desperate to stay here again though.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Winnie H, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>It’s clean enough.  The bed looks a little worn.  There is a tremendous perfume smell that pervades the lobby.  The room not as much.  It has its own unique smell.  This property is tired and most of the parking is in a back lot where I don’t feel my vehicle is as secure.  Winnie is a small town right on the freeway.  You might find some crawfish here for dinner.  Not much in the way of entertainment.  The room is reasonably quiet which is a big plus.  I would have to be pretty desperate to stay here again though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r565155372-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>565155372</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Relaxing evening</t>
+  </si>
+  <si>
+    <t>We stayed here after 13 hours on the road.  The desk clerk was polite and recommended good a restaurant for dinner. The room was the typical , comfortable Holiday Inn Express layout——clean and simple.  There were both a refrigerator and microwave, as well as a coffee pot.  Breakfast was fine, again, what you expect from Holiday Inn Express.  We would not hesitate to stay there again.  We had no complaints. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded March 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here after 13 hours on the road.  The desk clerk was polite and recommended good a restaurant for dinner. The room was the typical , comfortable Holiday Inn Express layout——clean and simple.  There were both a refrigerator and microwave, as well as a coffee pot.  Breakfast was fine, again, what you expect from Holiday Inn Express.  We would not hesitate to stay there again.  We had no complaints. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r555993478-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>555993478</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t>This was generally a quiet hotel. There is road noise form the nearby highway, but running the fan provided enough white noise to block it out.The bed was comfortable, and I slept well.We appreciated having Wifi, although at times the signal was took weak to connect to email. Breakfast is included, but we decided to sleep late instead.The bathroom was good sized, and the shower was great, the best I've had in a long time. One important problem: After flushing, the toilet tank took an unusually long time to refill. I mean really, really long. This is a problem when you have two people sharing a room. This is something that needs attention. Room 320, if management is reading this.Overall, we were happy with our stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Winnie H, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded January 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2018</t>
+  </si>
+  <si>
+    <t>This was generally a quiet hotel. There is road noise form the nearby highway, but running the fan provided enough white noise to block it out.The bed was comfortable, and I slept well.We appreciated having Wifi, although at times the signal was took weak to connect to email. Breakfast is included, but we decided to sleep late instead.The bathroom was good sized, and the shower was great, the best I've had in a long time. One important problem: After flushing, the toilet tank took an unusually long time to refill. I mean really, really long. This is a problem when you have two people sharing a room. This is something that needs attention. Room 320, if management is reading this.Overall, we were happy with our stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r533850232-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>533850232</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>comfortable place</t>
+  </si>
+  <si>
+    <t>Very friendly staff.  recommended good barbecue place.  rooms were clean &amp; comfortable.  I am a priority club member &amp; always try to stay at a Holiday Inn Express.the hotel was convenient to Interstate 10.  So that was a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Winnie H, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Very friendly staff.  recommended good barbecue place.  rooms were clean &amp; comfortable.  I am a priority club member &amp; always try to stay at a Holiday Inn Express.the hotel was convenient to Interstate 10.  So that was a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r502087864-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>502087864</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Good Experience </t>
+  </si>
+  <si>
+    <t>After calling Several Galveston hotels and finding them booked or asking $250/night, we pulled over at this HIE to give it a shot.Price = great! $110 for 2 x queen bedsBreakfast = hot and deliciousOur room was pretty good, especially considering the price.The adjacent parking is good...safe, very close, and well lit.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>After calling Several Galveston hotels and finding them booked or asking $250/night, we pulled over at this HIE to give it a shot.Price = great! $110 for 2 x queen bedsBreakfast = hot and deliciousOur room was pretty good, especially considering the price.The adjacent parking is good...safe, very close, and well lit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r499696150-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>499696150</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Good stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check in was timely. Room was clean and towels were great. Bed was great on one side but had a lump on the other, was big enough to move over and I slept fine. Breakfast was fine-plentiful and hot. The pool was also good. Good stop when traveling, easy on and off the interstate </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r485150486-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>485150486</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attentive </t>
+  </si>
+  <si>
+    <t>They took us in last minute when days inn cancelled our reservation after having it for a week. They needed a credit card for a deposit, but I let my son use mine for prom. So they took a cash deposit instead. They were very nice, rooms were nice and clean. They had all doors locked until around 9am. Needed just your room card to get in. They handled my loud annoying brother very well. There is a young man that works in the morning that is a very hard worker and even tho he was busy fixing the breakfast buffet among other things he very politely stopped what he was doing to accommodate my annoying brother. The breakfast was better than a lot of hotel breakfasts. Wasn't the same both mornings I was there. I will definitely go back next time I'm staying in Winnie. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded May 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2017</t>
+  </si>
+  <si>
+    <t>They took us in last minute when days inn cancelled our reservation after having it for a week. They needed a credit card for a deposit, but I let my son use mine for prom. So they took a cash deposit instead. They were very nice, rooms were nice and clean. They had all doors locked until around 9am. Needed just your room card to get in. They handled my loud annoying brother very well. There is a young man that works in the morning that is a very hard worker and even tho he was busy fixing the breakfast buffet among other things he very politely stopped what he was doing to accommodate my annoying brother. The breakfast was better than a lot of hotel breakfasts. Wasn't the same both mornings I was there. I will definitely go back next time I'm staying in Winnie. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r468681857-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>468681857</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Great place to spend the night</t>
+  </si>
+  <si>
+    <t>Stayed in Winnie for business for about 3 weeks. This HIE is an example of what all hotels should be. It's well run, amazingly clean (rooms, breakfast area, and even the parking lot), and excellently maintained. The staff - all of them - area pleasant and will make you feel comfortable. The internet was fine when plugged in, and although I can see numerous access points (good WiFi coverage throughout the hotel), it would, from time to time, drop out for some period of time periodically. Speed wasn't the best, but is adequate for being able to get my work done.There is a little highway noise, but it's not bothersome. Get a room on the south side of the hotel (lower numbered rooms) if possible.If I had to pick something that I'd change, it's the loudness of the in-room AC untils - They seem pretty loud compared to some hotels I've stayed.The hotel staff and management deserve a "well done" for this well run hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Winnie H, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Stayed in Winnie for business for about 3 weeks. This HIE is an example of what all hotels should be. It's well run, amazingly clean (rooms, breakfast area, and even the parking lot), and excellently maintained. The staff - all of them - area pleasant and will make you feel comfortable. The internet was fine when plugged in, and although I can see numerous access points (good WiFi coverage throughout the hotel), it would, from time to time, drop out for some period of time periodically. Speed wasn't the best, but is adequate for being able to get my work done.There is a little highway noise, but it's not bothersome. Get a room on the south side of the hotel (lower numbered rooms) if possible.If I had to pick something that I'd change, it's the loudness of the in-room AC untils - They seem pretty loud compared to some hotels I've stayed.The hotel staff and management deserve a "well done" for this well run hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r467895252-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>467895252</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Not what I am accustomed to with a Holiday Inn</t>
+  </si>
+  <si>
+    <t>I was disappointed with this Holiday Inn.  I felt the cleanliness of the room, breakfast and atmosphere were not what I am accustomed to with a Holiday Inn.  We had an Emotional Support Dog with us and though the management allowed(by law I believe that had to)  us to have the dog I felt like they were not really thrilled about it.  We traveled from Ohio and this was the only hotel that actually read the letter from the doctor and then made us sign a paper about the dog and then the day we checked out they had to come in and inspect the room to make sure the dog hadn't done any damage.  I felt a bit insulted and I for one will not be staying there againMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Winnie H, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>I was disappointed with this Holiday Inn.  I felt the cleanliness of the room, breakfast and atmosphere were not what I am accustomed to with a Holiday Inn.  We had an Emotional Support Dog with us and though the management allowed(by law I believe that had to)  us to have the dog I felt like they were not really thrilled about it.  We traveled from Ohio and this was the only hotel that actually read the letter from the doctor and then made us sign a paper about the dog and then the day we checked out they had to come in and inspect the room to make sure the dog hadn't done any damage.  I felt a bit insulted and I for one will not be staying there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r445281648-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>445281648</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Clean room nice staff</t>
+  </si>
+  <si>
+    <t>Got in late , Susan, was very kind helpful took only minutes to get a room and be  enjoying a nice hot shower and clean bed, breakfast was good ... We have stayed here before and will be back, you wont be disappointed with your stay.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r430046272-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>430046272</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Comfortable bed!</t>
+  </si>
+  <si>
+    <t>My husband and I we was so tired for driving, we decided to stop Winnie Texas, it was too late and  a lot of the hotels are booked and we finally got room at Holiday Inn, it's clean, our room was clean and bathroom was clean and big, the pillows was so comfortable and a bed was amazing. I have sweet dreams:), they have free breakfast. I recommend for anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I we was so tired for driving, we decided to stop Winnie Texas, it was too late and  a lot of the hotels are booked and we finally got room at Holiday Inn, it's clean, our room was clean and bathroom was clean and big, the pillows was so comfortable and a bed was amazing. I have sweet dreams:), they have free breakfast. I recommend for anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r419786250-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>419786250</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Wonderful experience!</t>
+  </si>
+  <si>
+    <t>First of all the staff was very friendly and helpful. The bed was amazingly comfortable and of course, the cinnamon rolls were warm and tasty! There's an outdoor pool,a little on the small side, but nice little area. The only bad thing is the elevator is slow and sounds like is going to quit any moment. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Winnie H, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>First of all the staff was very friendly and helpful. The bed was amazingly comfortable and of course, the cinnamon rolls were warm and tasty! There's an outdoor pool,a little on the small side, but nice little area. The only bad thing is the elevator is slow and sounds like is going to quit any moment. I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r378288084-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>378288084</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Okay stay, not the best quality</t>
+  </si>
+  <si>
+    <t>We just stayed at the Holiday Inn Express in Winnie, and were pretty disappointed. It's an older hotel that seems to have been grandfathered in to be in the family of Holiday Inn Expresses that are newer and of higher standards in most of the country (we've stayed at many). It was outdated, but of more importance was not entirely clean. There was a dried up fruit and goldfish crackers under the bed and hand prints all over the windows and glass of the pictures on the wall. The mattresses were terribly saggy when sat on, but weren't too bad when lying down. The worst part for me personally was the smell. The room, but mostly the bathroom, had a strong smell that I can only describe as musty Indian food. It was quite unsettling. That said the staff was friendly, it felt very safe, and even though older was well taken care of. However, we would not stay here again if given the opportunityMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We just stayed at the Holiday Inn Express in Winnie, and were pretty disappointed. It's an older hotel that seems to have been grandfathered in to be in the family of Holiday Inn Expresses that are newer and of higher standards in most of the country (we've stayed at many). It was outdated, but of more importance was not entirely clean. There was a dried up fruit and goldfish crackers under the bed and hand prints all over the windows and glass of the pictures on the wall. The mattresses were terribly saggy when sat on, but weren't too bad when lying down. The worst part for me personally was the smell. The room, but mostly the bathroom, had a strong smell that I can only describe as musty Indian food. It was quite unsettling. That said the staff was friendly, it felt very safe, and even though older was well taken care of. However, we would not stay here again if given the opportunityMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r372436595-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>372436595</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Weekend Vacation</t>
+  </si>
+  <si>
+    <t>What a very nice Holiday Inn Express! From the moment we pulled up, I felt very safe and the facilities were very clean! We were given a room with two queen beds near the pool! What a beautiful sparkling pool! Our room was very comfortable! The AC was nice and cold! Again, the housekeepers did a wonderful job! We are here all week! I cannot wait to see their hot breakfast in the morning!! :) thanks Nick for the warm welcome!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r370134355-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>370134355</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Great place.  Convenient to everything, quiet, close to interstate</t>
+  </si>
+  <si>
+    <t>I had a 6 man crew here for a week.  Good place.  Breakfast is above average for motel eats.  Owner is on site constantly.  Pool is good.  Quiet place.  We had no loud noise in the evenings or problematic guests making trouble.  Good parking out back.  They run a tight ship here.  Will stay again.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r355446031-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>355446031</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Poor experience</t>
+  </si>
+  <si>
+    <t>Holiday inn express is our normal home away from home, but this hotel was a nightmare. Neither the day or night desk clerk spoke clear enough English to be effective. After each use our room entrance cards had to be redone. There was no coffe in the lobby at all and the morning breakfast food was stone cold. This is a hotel to be avoided at all costs. A terrible facility.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r349611821-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>349611821</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Soft mattress with plastic on mattress pad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical Holiday Inn Express, so clean and friendly staff with an excellent breakfast. But they had some kind of mattress pad that was plasticy that made a crinkly noise and also was too warm, and strange spots on the ceiling right over the bed, which is why I'm rating this 3 star instead of 4. . Easy to find. Right off the highway but room was quiet. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r345395979-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>345395979</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Perfect for us</t>
+  </si>
+  <si>
+    <t>We were looking for a convenient stop on our way to Galveston, and this was perfect. The service was great too. We upgraded to a suite which gave the four of us room to spread out. The only issue we encountered was difficulty closing the bathroom door.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r309372237-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>309372237</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Don't Stay at This Hotel</t>
+  </si>
+  <si>
+    <t>We will never stay at this hotel every again.  Musty and dampness in lobby and in our room.  So damp the papers got wet.  One day no cleaning service because we had DND on the door.  But this is the first hotel I've stayed that did not go back to clean a room.  The springs on the edge of the bed can be felt (back still hurts).  Only about 10 parking spaces. Have to use hotel next door to park. Manager has a so so attitude.  I made a mistake and did not wear my watch every day (hands swelled).  Did not realize it was missing until the last day when I went to put it on.  Front desk person stated "my cleaning people don't steal".  I did not say it was stolen, I said it was missing.  He took the description of the watch.  No have a nice day when we left.  Did not offer anything for our inconvenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>We will never stay at this hotel every again.  Musty and dampness in lobby and in our room.  So damp the papers got wet.  One day no cleaning service because we had DND on the door.  But this is the first hotel I've stayed that did not go back to clean a room.  The springs on the edge of the bed can be felt (back still hurts).  Only about 10 parking spaces. Have to use hotel next door to park. Manager has a so so attitude.  I made a mistake and did not wear my watch every day (hands swelled).  Did not realize it was missing until the last day when I went to put it on.  Front desk person stated "my cleaning people don't steal".  I did not say it was stolen, I said it was missing.  He took the description of the watch.  No have a nice day when we left.  Did not offer anything for our inconvenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r288379562-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>288379562</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel for the family!</t>
+  </si>
+  <si>
+    <t>The hotel was great! The staff was very friendly! The hotel is very clean and modern. Excellent hot breakfast in the morning. The pool was very big and clean. The beds were comfortable. The room had a large flat screen tv with satellite TV. Free fast wifi. We were very pleased!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was great! The staff was very friendly! The hotel is very clean and modern. Excellent hot breakfast in the morning. The pool was very big and clean. The beds were comfortable. The room had a large flat screen tv with satellite TV. Free fast wifi. We were very pleased!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r283708689-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>283708689</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>On way to beach</t>
+  </si>
+  <si>
+    <t>Hotel is about 20 miles from the coast and we needed a place to stay for a day of beach combing. It was very clean and well maintained. Swimming pool was great. Breakfast was about average but kept well stocked. A very pleasant stay and we will returnMoreShow less</t>
+  </si>
+  <si>
+    <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is about 20 miles from the coast and we needed a place to stay for a day of beach combing. It was very clean and well maintained. Swimming pool was great. Breakfast was about average but kept well stocked. A very pleasant stay and we will returnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r278284774-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>278284774</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Dirty, smelly,overpriced and rude</t>
+  </si>
+  <si>
+    <t>I am currently staying at this hotel for the 2nd night because I have no other option. First off, the hotel smells musty,old with a hint of animal/smoke funk. It's a property that needs renovation and just a real good cleaning! Our room - carpet had several spots as well as dirt in the corners. Worst was the bathroom- the shower curtain was filthy and I had to get the front desk to change it -they did. After I noticed the shower curtain, I questioned the cleanliness of the bed linen- soniasked at the very least if I could get new pillow cases. The front desk guy said NO. He said they were clean - really???? I said, how do you know, he said "because they change the linen and clean the room once a day." I said "just like they cleaned the bathroom and shower curtain?" He said "NO pillowcase until morning." I could not believe it. What kind of customer service is that?? My advise to anyone coming to Beaumont area - NEVER stay at this hotel. FYI- we went to Walmart and purchased our own pillowcase.MoreShow less</t>
+  </si>
+  <si>
+    <t>diffrentsauce, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>I am currently staying at this hotel for the 2nd night because I have no other option. First off, the hotel smells musty,old with a hint of animal/smoke funk. It's a property that needs renovation and just a real good cleaning! Our room - carpet had several spots as well as dirt in the corners. Worst was the bathroom- the shower curtain was filthy and I had to get the front desk to change it -they did. After I noticed the shower curtain, I questioned the cleanliness of the bed linen- soniasked at the very least if I could get new pillow cases. The front desk guy said NO. He said they were clean - really???? I said, how do you know, he said "because they change the linen and clean the room once a day." I said "just like they cleaned the bathroom and shower curtain?" He said "NO pillowcase until morning." I could not believe it. What kind of customer service is that?? My advise to anyone coming to Beaumont area - NEVER stay at this hotel. FYI- we went to Walmart and purchased our own pillowcase.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r264480619-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>264480619</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>We were driving from New Orleans and stopped in Winnie before heading on to Houston. This place is great value for money. And! A delicious free cookie! It has a coffee pot, microwave, and a good sized fridge. The pillows are nice and fluffy. The room is clean but dated. The AC worked perfectly. We missed breakfast, so can't tell you much about that. The parking was good, close, and free. It was too cold to use the pool. It was generally quiet, except when the maids cleaned the rooms. They played loud Spanish music from their cleaning cart, which can easily be heard in the your room. Perhaps some headphones might be in order?All in all, a lovely stay. If we were in the area, we would happily stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>diffrentsauce, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2015</t>
+  </si>
+  <si>
+    <t>We were driving from New Orleans and stopped in Winnie before heading on to Houston. This place is great value for money. And! A delicious free cookie! It has a coffee pot, microwave, and a good sized fridge. The pillows are nice and fluffy. The room is clean but dated. The AC worked perfectly. We missed breakfast, so can't tell you much about that. The parking was good, close, and free. It was too cold to use the pool. It was generally quiet, except when the maids cleaned the rooms. They played loud Spanish music from their cleaning cart, which can easily be heard in the your room. Perhaps some headphones might be in order?All in all, a lovely stay. If we were in the area, we would happily stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r258624463-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>258624463</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Good stopover spot</t>
+  </si>
+  <si>
+    <t>Great bed and shower, Clean and attractive. The Free wifi is what you get for the price and is a common flaw with Holiday Inn express. The wifi is slow and it is impossible to stream a movie in the room.  When I moved to the common area of the hotel the wifi worked well.Breakfast was standard Holiday Inn fare.MoreShow less</t>
+  </si>
+  <si>
+    <t>diffrentsauce, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Great bed and shower, Clean and attractive. The Free wifi is what you get for the price and is a common flaw with Holiday Inn express. The wifi is slow and it is impossible to stream a movie in the room.  When I moved to the common area of the hotel the wifi worked well.Breakfast was standard Holiday Inn fare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r232073465-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>232073465</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Ok as a stop over</t>
+  </si>
+  <si>
+    <t>For a stop over it is ideal, just off the interstate and the rooms appear to be well insulated from the noise. The pool at the rear of the property is a real oasis, and you forget how close you are to a I 10.Service adequate and breakfast poor compared to other HIE hotels we have stayed in. One saving grace is the tasty popcorn guests get on the afternoon.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>diffrentsauce, Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded October 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2014</t>
+  </si>
+  <si>
+    <t>For a stop over it is ideal, just off the interstate and the rooms appear to be well insulated from the noise. The pool at the rear of the property is a real oasis, and you forget how close you are to a I 10.Service adequate and breakfast poor compared to other HIE hotels we have stayed in. One saving grace is the tasty popcorn guests get on the afternoon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r218959571-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>218959571</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Nice building but service is terrible.</t>
+  </si>
+  <si>
+    <t>First of all we stayed there as a baseball team for 8 days. 11 rooms for 8 days and the service was terrible. But I'll start with the positives. The building is nice. Medium size rooms and comfortable beds. Air was cold, pool is nice, they have a 2 foot kid pool which was handy for us. Breakfast was average. Cons- they didn't change our sheets 3 of the 8 nights, didn't change our trash 2 of the 8, workers were very rude over everything we did. Would never stay there again because of the employees.  One night we were the only ones in the entire hotel but they wouldn't let us use the breakfast room for a surprise birthday party. So we did it outside and they came and got on to us for using a table for it. Overall beware of these employees.  MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded August 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2014</t>
+  </si>
+  <si>
+    <t>First of all we stayed there as a baseball team for 8 days. 11 rooms for 8 days and the service was terrible. But I'll start with the positives. The building is nice. Medium size rooms and comfortable beds. Air was cold, pool is nice, they have a 2 foot kid pool which was handy for us. Breakfast was average. Cons- they didn't change our sheets 3 of the 8 nights, didn't change our trash 2 of the 8, workers were very rude over everything we did. Would never stay there again because of the employees.  One night we were the only ones in the entire hotel but they wouldn't let us use the breakfast room for a surprise birthday party. So we did it outside and they came and got on to us for using a table for it. Overall beware of these employees.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r216947358-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>216947358</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Decent for the Price</t>
+  </si>
+  <si>
+    <t>Stayed here the night before we got our beach house on Crystal Beach.  At first arrival the lobby had a very strong odor of cooked food and very unpleasant.  The front desk clerk was not very welcoming, just straight to business.  The room was decently clean not thing great but did not gross me out.  Overall I would rank this hotel poor but, the price of 89 dollars saves it to an average hotel for 89 dollars.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here the night before we got our beach house on Crystal Beach.  At first arrival the lobby had a very strong odor of cooked food and very unpleasant.  The front desk clerk was not very welcoming, just straight to business.  The room was decently clean not thing great but did not gross me out.  Overall I would rank this hotel poor but, the price of 89 dollars saves it to an average hotel for 89 dollars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r203779587-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>203779587</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>good nights sleep</t>
+  </si>
+  <si>
+    <t>The room was clean and quiet.  Bathroom was nice and clean and everything worked in the room.  The breakfast was hot and well stocked.  We did have to ring a bell to get service when we checked in, but the clerk may have been dealing with other things.   We would definitely stsy here again if in the area.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r201547846-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>201547846</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>Welcome Birders!</t>
+  </si>
+  <si>
+    <t>My friend and I stayed there last week (April 9-12). The staff was friendly and helpful. The beds were incredibly comfortable and after birding hard all day, it was a real treat to lay down on a nice bed. The rates are very good too. The grounds are nice and well-lit. Overall the place is quite clean for a high traffic area and the breakfast fare was a plus. I would recommend this place to any birder or traveler in the area. We will be back!</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r199933272-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>199933272</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>Noisy air conditioner</t>
+  </si>
+  <si>
+    <t>The air conditioner/fan in the room was loud and when turned off the room got too hot and you could hear the freeway traffic. In addition, the bed was not that comfortable.  I would not stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded April 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2014</t>
+  </si>
+  <si>
+    <t>The air conditioner/fan in the room was loud and when turned off the room got too hot and you could hear the freeway traffic. In addition, the bed was not that comfortable.  I would not stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r166804020-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>166804020</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Beach Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value couldn't be beat. To find a room at that rate, $86.00 on the 4th of July weekend, unbelievable!! When I visit High Island I usually stay at a Motel close to the beach, the rate I was quoted @ that Motel vs. Holiday Inn no comparison. Almost twice as much and breakfast included... No brainer. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r151882897-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>151882897</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>Stay with caution!</t>
+  </si>
+  <si>
+    <t>Key reader battery died (didn't come at agreed upon time or ever to fix), no hot water to take a shower (told my front desk that too many people are trying to shower at the same time), late wake up calls (called 45 minutes after requested time), not so friendly service at check out.  There are too many hotel options right next to each other to chance if this will happen to you......MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded February 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2013</t>
+  </si>
+  <si>
+    <t>Key reader battery died (didn't come at agreed upon time or ever to fix), no hot water to take a shower (told my front desk that too many people are trying to shower at the same time), late wake up calls (called 45 minutes after requested time), not so friendly service at check out.  There are too many hotel options right next to each other to chance if this will happen to you......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r138914331-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>138914331</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>Owner is terrible and unfair and unfriendly.</t>
+  </si>
+  <si>
+    <t>Reception said cxl policy 6pm day of booked on holiday inn website. Called to cxl, would not let us cancel bc it was a one night deposit rate. We tried to cxl again bc rate was for 2 nights. Charged us for both nights even though deposit was for one night only. Owner refused to refund. We have to dispute second night with cc co. This was for hurricane evacuation. We called the hotel the night that should have been our first night and they still had availability. The Holiday Inn did not turn anyone away because they were holding our room. The owner was rude, mean and terrible. I am upset with the Holiday Inn brand for not allowing us to dispute this matter with them directly, instead they made us deal with this snake business owner.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded September 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2012</t>
+  </si>
+  <si>
+    <t>Reception said cxl policy 6pm day of booked on holiday inn website. Called to cxl, would not let us cancel bc it was a one night deposit rate. We tried to cxl again bc rate was for 2 nights. Charged us for both nights even though deposit was for one night only. Owner refused to refund. We have to dispute second night with cc co. This was for hurricane evacuation. We called the hotel the night that should have been our first night and they still had availability. The Holiday Inn did not turn anyone away because they were holding our room. The owner was rude, mean and terrible. I am upset with the Holiday Inn brand for not allowing us to dispute this matter with them directly, instead they made us deal with this snake business owner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r118752491-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>118752491</t>
+  </si>
+  <si>
+    <t>09/29/2011</t>
+  </si>
+  <si>
+    <t>Clean &amp; Newer Hotel in Winnie Texas</t>
+  </si>
+  <si>
+    <t>Do to family commitments we had to stay at th HI in Winnie for 8 days.  The hotel is very clean, the breakfast is very average, the service at the front desk varies a great deal. Half of the time it is very friendly and half of the time it is very indifferent. It not a vacation place but a reasonable stop over.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r118251401-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>118251401</t>
+  </si>
+  <si>
+    <t>09/17/2011</t>
+  </si>
+  <si>
+    <t>Affordable and clean</t>
+  </si>
+  <si>
+    <t>Hotel room was clean, affordable, and the bed was comfortable. Although the hotel is very close to the interstate (and our room was facing the interstate) we couldn't hear any traffic.My only complaint was the free wifi. They have three different wifi's to access, and all three were very weak and slow signals. If you really need to connect to the internet, you're better off using the business center downstairs.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r115637953-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>115637953</t>
+  </si>
+  <si>
+    <t>07/21/2011</t>
+  </si>
+  <si>
+    <t>Not bad at all!</t>
+  </si>
+  <si>
+    <t>Staff at check-in was professional and very nice.  Room was just what I expected and was very clean.  We found our stay to be restful and quiet - no slamming doors or hallway noise. All in all, not bad at all.  Will stay here again when in the area.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r85581060-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>85581060</t>
+  </si>
+  <si>
+    <t>11/01/2010</t>
+  </si>
+  <si>
+    <t>SERIOUSLY??</t>
+  </si>
+  <si>
+    <t>I just got through with a stay at this particular Holiday inn express and i was shocked because we LOVE LOVE the Holiday Inn express BECAUSE  THEY ARE CONSISTENT...not this one.. YES the hotel is new but when a door shuts not only can you HEAR it... you FEEL it...  The prior reviewer couldn't have been in same hotel I was in... Three of my collegues were there also SAME story...The hot food was COLD..pool was ICE COLD even though it was in the 90s  and at night the hot tub was ice cold and they said it was hassle so it wouldnt be fixed..NO storage to put things away and be comfortable...  AND the front desk personell was about 17 years old and very immature couldn't handle any of our issues ..It was clean and the beds are comfy....we checked out and stayed at another hotel and enjoyed the rest of our stay...MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>I just got through with a stay at this particular Holiday inn express and i was shocked because we LOVE LOVE the Holiday Inn express BECAUSE  THEY ARE CONSISTENT...not this one.. YES the hotel is new but when a door shuts not only can you HEAR it... you FEEL it...  The prior reviewer couldn't have been in same hotel I was in... Three of my collegues were there also SAME story...The hot food was COLD..pool was ICE COLD even though it was in the 90s  and at night the hot tub was ice cold and they said it was hassle so it wouldnt be fixed..NO storage to put things away and be comfortable...  AND the front desk personell was about 17 years old and very immature couldn't handle any of our issues ..It was clean and the beds are comfy....we checked out and stayed at another hotel and enjoyed the rest of our stay...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r50770922-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>50770922</t>
+  </si>
+  <si>
+    <t>12/06/2009</t>
+  </si>
+  <si>
+    <t>Consistently a nice stay, very professional staff</t>
+  </si>
+  <si>
+    <t>To earn this traveler's loyalty, consistency in the right areas is key.  This property really does have a good team on board.  This hotel must be only a year or less old.  Almost everything seems fairly new - fixtures, linens, etc.I have stayed at this hotel 3 times.  So I can honestly say that the rooms are always well kept/cleaned.  I also like the fact that the front desk staff is helpful and friendly...but not overly or "fake friendly".Winnie, Texas is in the middle of no where - about 50 minutes east of Houston.  So when I found this hotel I was quiet happy.  It is right off of the freeway exit.  Food choices are limited.  The only improvement I would make is to the hot breakfast items.  If you want protein, go for the cold hard boiled eggs instead of the hotel cheese omelets.  Those omelets just don't taste real to me (smile).  An important thing to note is that the hotel is next to I-10.  BUT, although I'm a light sleeper, I NEVER have problems sleeping at this hotel.  The traffic really dies down at night and they appear to have storm windows - which help with outside noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>To earn this traveler's loyalty, consistency in the right areas is key.  This property really does have a good team on board.  This hotel must be only a year or less old.  Almost everything seems fairly new - fixtures, linens, etc.I have stayed at this hotel 3 times.  So I can honestly say that the rooms are always well kept/cleaned.  I also like the fact that the front desk staff is helpful and friendly...but not overly or "fake friendly".Winnie, Texas is in the middle of no where - about 50 minutes east of Houston.  So when I found this hotel I was quiet happy.  It is right off of the freeway exit.  Food choices are limited.  The only improvement I would make is to the hot breakfast items.  If you want protein, go for the cold hard boiled eggs instead of the hotel cheese omelets.  Those omelets just don't taste real to me (smile).  An important thing to note is that the hotel is next to I-10.  BUT, although I'm a light sleeper, I NEVER have problems sleeping at this hotel.  The traffic really dies down at night and they appear to have storm windows - which help with outside noise.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1411,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1443,2467 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>189</v>
+      </c>
+      <c r="X20" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>198</v>
+      </c>
+      <c r="X21" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>214</v>
+      </c>
+      <c r="X23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24" t="s">
+        <v>220</v>
+      </c>
+      <c r="L24" t="s">
+        <v>221</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>222</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>231</v>
+      </c>
+      <c r="X25" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="X26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>248</v>
+      </c>
+      <c r="X27" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>257</v>
+      </c>
+      <c r="X28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s">
+        <v>264</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" t="s">
+        <v>268</v>
+      </c>
+      <c r="K30" t="s">
+        <v>269</v>
+      </c>
+      <c r="L30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s">
+        <v>272</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s">
+        <v>276</v>
+      </c>
+      <c r="L31" t="s">
+        <v>277</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>278</v>
+      </c>
+      <c r="X31" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s">
+        <v>285</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>292</v>
+      </c>
+      <c r="X33" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>300</v>
+      </c>
+      <c r="X34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>305</v>
+      </c>
+      <c r="K35" t="s">
+        <v>306</v>
+      </c>
+      <c r="L35" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36" t="s">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s">
+        <v>312</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>313</v>
+      </c>
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" t="s">
+        <v>317</v>
+      </c>
+      <c r="L37" t="s">
+        <v>318</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>319</v>
+      </c>
+      <c r="O37" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" t="s">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s">
+        <v>324</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>325</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>328</v>
+      </c>
+      <c r="J39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K39" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" t="s">
+        <v>331</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>332</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_343.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_343.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r589863061-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>56907</t>
+  </si>
+  <si>
+    <t>1197378</t>
+  </si>
+  <si>
+    <t>589863061</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Last minute choice for a hotel - nothing fancy but clean sheets and a safe and secure place to sleep.  Would stay with there again.  Front desk staff was helpful and breakfast was standard for the brand.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r583752863-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>583752863</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Horrible Experience</t>
+  </si>
+  <si>
+    <t>checked in and gave desk credit card .  Put luggage in room.  first noticed a big stain on floor.  Sticky and slimy.  Placed a towel over it so I wouldn't step on it.  After conducting my business and dinner returned to hotel.  Next morning there was no bill under door.  Thought I was just early so ignored (mistake - make sure you get one before leaving).  Breakfast was pitiful.  Very few options and no one there cleaning up or watching what needed to be refilled.  Left and headed home.  Upon arrival at home spouse told me he had a call from hotel and they needed his cc # as mine had not processed.  I used mine both previous and after the swipe at hotel with no problem.  Told spouse this and we looked at charges on card and it had been charged 3 times!!!!!.  Called AE and they cancelled 2 of them.  Said none had been denied and my first charge at hotel was approved.  This was an absolute attempt to scam me.  I contacted corporate and started a corporate complaint.  They recorded it and told me I would receive a call from the Hotel within 48 hours.  They never called.  After a month I contacted Corporate again and received a call from hotel within 5 minutes.  After a very frustrating conversation in which manager tried to get me to give him my number again so he could try it...checked in and gave desk credit card .  Put luggage in room.  first noticed a big stain on floor.  Sticky and slimy.  Placed a towel over it so I wouldn't step on it.  After conducting my business and dinner returned to hotel.  Next morning there was no bill under door.  Thought I was just early so ignored (mistake - make sure you get one before leaving).  Breakfast was pitiful.  Very few options and no one there cleaning up or watching what needed to be refilled.  Left and headed home.  Upon arrival at home spouse told me he had a call from hotel and they needed his cc # as mine had not processed.  I used mine both previous and after the swipe at hotel with no problem.  Told spouse this and we looked at charges on card and it had been charged 3 times!!!!!.  Called AE and they cancelled 2 of them.  Said none had been denied and my first charge at hotel was approved.  This was an absolute attempt to scam me.  I contacted corporate and started a corporate complaint.  They recorded it and told me I would receive a call from the Hotel within 48 hours.  They never called.  After a month I contacted Corporate again and received a call from hotel within 5 minutes.  After a very frustrating conversation in which manager tried to get me to give him my number again so he could try it ( did he think I was dumb enough to comply!!!!!) I finally just hung up.  Hotel smells like Indian food with a perfume overlay.  Third floor is occupied by managers family  (hot plates and dogs, etc.)   Very bad experience - will not stay there again.  Do not listen to the false platitudes written by manager in regards to complaints on this site this is the ultimate con.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>checked in and gave desk credit card .  Put luggage in room.  first noticed a big stain on floor.  Sticky and slimy.  Placed a towel over it so I wouldn't step on it.  After conducting my business and dinner returned to hotel.  Next morning there was no bill under door.  Thought I was just early so ignored (mistake - make sure you get one before leaving).  Breakfast was pitiful.  Very few options and no one there cleaning up or watching what needed to be refilled.  Left and headed home.  Upon arrival at home spouse told me he had a call from hotel and they needed his cc # as mine had not processed.  I used mine both previous and after the swipe at hotel with no problem.  Told spouse this and we looked at charges on card and it had been charged 3 times!!!!!.  Called AE and they cancelled 2 of them.  Said none had been denied and my first charge at hotel was approved.  This was an absolute attempt to scam me.  I contacted corporate and started a corporate complaint.  They recorded it and told me I would receive a call from the Hotel within 48 hours.  They never called.  After a month I contacted Corporate again and received a call from hotel within 5 minutes.  After a very frustrating conversation in which manager tried to get me to give him my number again so he could try it...checked in and gave desk credit card .  Put luggage in room.  first noticed a big stain on floor.  Sticky and slimy.  Placed a towel over it so I wouldn't step on it.  After conducting my business and dinner returned to hotel.  Next morning there was no bill under door.  Thought I was just early so ignored (mistake - make sure you get one before leaving).  Breakfast was pitiful.  Very few options and no one there cleaning up or watching what needed to be refilled.  Left and headed home.  Upon arrival at home spouse told me he had a call from hotel and they needed his cc # as mine had not processed.  I used mine both previous and after the swipe at hotel with no problem.  Told spouse this and we looked at charges on card and it had been charged 3 times!!!!!.  Called AE and they cancelled 2 of them.  Said none had been denied and my first charge at hotel was approved.  This was an absolute attempt to scam me.  I contacted corporate and started a corporate complaint.  They recorded it and told me I would receive a call from the Hotel within 48 hours.  They never called.  After a month I contacted Corporate again and received a call from hotel within 5 minutes.  After a very frustrating conversation in which manager tried to get me to give him my number again so he could try it ( did he think I was dumb enough to comply!!!!!) I finally just hung up.  Hotel smells like Indian food with a perfume overlay.  Third floor is occupied by managers family  (hot plates and dogs, etc.)   Very bad experience - will not stay there again.  Do not listen to the false platitudes written by manager in regards to complaints on this site this is the ultimate con.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r567590870-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
-    <t>56907</t>
-  </si>
-  <si>
-    <t>1197378</t>
-  </si>
-  <si>
     <t>567590870</t>
   </si>
   <si>
@@ -243,6 +285,63 @@
     <t>This was generally a quiet hotel. There is road noise form the nearby highway, but running the fan provided enough white noise to block it out.The bed was comfortable, and I slept well.We appreciated having Wifi, although at times the signal was took weak to connect to email. Breakfast is included, but we decided to sleep late instead.The bathroom was good sized, and the shower was great, the best I've had in a long time. One important problem: After flushing, the toilet tank took an unusually long time to refill. I mean really, really long. This is a problem when you have two people sharing a room. This is something that needs attention. Room 320, if management is reading this.Overall, we were happy with our stay here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r544017676-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>544017676</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>More than Adequate</t>
+  </si>
+  <si>
+    <t>This property makes a convenient stopover along I-10. Lots of room and a nice firm mattress provided the rest I needed to prepare for the next day. The manager at the front desk greeted me with personable professionalism. The only drawback to this and all HI Express hotels in the US is the breakfast. The meat and eggs taste like heated plastic. The HI Expresses in the UK provide marvelous options for breakfast, and their food is fresh and delicious. Wish the properties in the US could follow suit.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>This property makes a convenient stopover along I-10. Lots of room and a nice firm mattress provided the rest I needed to prepare for the next day. The manager at the front desk greeted me with personable professionalism. The only drawback to this and all HI Express hotels in the US is the breakfast. The meat and eggs taste like heated plastic. The HI Expresses in the UK provide marvelous options for breakfast, and their food is fresh and delicious. Wish the properties in the US could follow suit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r538602197-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>538602197</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Comfy Bed</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights as we volunteered nearby ... clean, comfy bed and good breakfast.  Holiday Inn Express continues to provide good places to stay in smaller, out of the way towns - good stop for Priority Club members!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Winnie H, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights as we volunteered nearby ... clean, comfy bed and good breakfast.  Holiday Inn Express continues to provide good places to stay in smaller, out of the way towns - good stop for Priority Club members!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r533850232-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -288,9 +387,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded July 19, 2017</t>
   </si>
   <si>
@@ -315,6 +411,62 @@
     <t xml:space="preserve">Check in was timely. Room was clean and towels were great. Bed was great on one side but had a lump on the other, was big enough to move over and I slept fine. Breakfast was fine-plentiful and hot. The pool was also good. Good stop when traveling, easy on and off the interstate </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r492234793-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>492234793</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>This Hotel is NOT Worth It</t>
+  </si>
+  <si>
+    <t>I do not typically write reviews but I am doing this to save other travelers from a terrible experience.  My family and I were relocating from DC to TX and stayed one night at this Holiday inn Express in Winnie, TX. As soon as we entered, the hotel smelled of mold and over abundance of carpet cleaner. I had reservations for a pet-friendly room and upon check-in, was told they did not have it on file, despite the fact I had a confirmed reservation. The clerk spoke broken English and told us to go the a room on the 2nd floor...I asked for confirmation that this was pet-friendly and he stated yes. We were going into our room and he indicated we had to go to a room on the first floor with pets.  That was the first inconvenience. 
+There were only 5 parking spaces in front of the hotel (plus a few handicapped) and the clerk was parked in one of them. He had the hood up on his car doing some work and when I asked him were guests are supposed to park, he pointed to an abandoned lot next to a Motel 6 adjacent to the hotel. When I asked him why staff were parked up front and guests were shuffled to the back, he ran back into the hotel. We woke up the next morning to a rainstorm and I have attached pictures of the outcome....I do not typically write reviews but I am doing this to save other travelers from a terrible experience.  My family and I were relocating from DC to TX and stayed one night at this Holiday inn Express in Winnie, TX. As soon as we entered, the hotel smelled of mold and over abundance of carpet cleaner. I had reservations for a pet-friendly room and upon check-in, was told they did not have it on file, despite the fact I had a confirmed reservation. The clerk spoke broken English and told us to go the a room on the 2nd floor...I asked for confirmation that this was pet-friendly and he stated yes. We were going into our room and he indicated we had to go to a room on the first floor with pets.  That was the first inconvenience. There were only 5 parking spaces in front of the hotel (plus a few handicapped) and the clerk was parked in one of them. He had the hood up on his car doing some work and when I asked him were guests are supposed to park, he pointed to an abandoned lot next to a Motel 6 adjacent to the hotel. When I asked him why staff were parked up front and guests were shuffled to the back, he ran back into the hotel. We woke up the next morning to a rainstorm and I have attached pictures of the outcome. This hotel is unclean and the obvious lack of repairs shows the lack of interest in customer service.  Don't waste your time/money at this neglected hotel.  The pictures they posted on line are deceiving!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>I do not typically write reviews but I am doing this to save other travelers from a terrible experience.  My family and I were relocating from DC to TX and stayed one night at this Holiday inn Express in Winnie, TX. As soon as we entered, the hotel smelled of mold and over abundance of carpet cleaner. I had reservations for a pet-friendly room and upon check-in, was told they did not have it on file, despite the fact I had a confirmed reservation. The clerk spoke broken English and told us to go the a room on the 2nd floor...I asked for confirmation that this was pet-friendly and he stated yes. We were going into our room and he indicated we had to go to a room on the first floor with pets.  That was the first inconvenience. 
+There were only 5 parking spaces in front of the hotel (plus a few handicapped) and the clerk was parked in one of them. He had the hood up on his car doing some work and when I asked him were guests are supposed to park, he pointed to an abandoned lot next to a Motel 6 adjacent to the hotel. When I asked him why staff were parked up front and guests were shuffled to the back, he ran back into the hotel. We woke up the next morning to a rainstorm and I have attached pictures of the outcome....I do not typically write reviews but I am doing this to save other travelers from a terrible experience.  My family and I were relocating from DC to TX and stayed one night at this Holiday inn Express in Winnie, TX. As soon as we entered, the hotel smelled of mold and over abundance of carpet cleaner. I had reservations for a pet-friendly room and upon check-in, was told they did not have it on file, despite the fact I had a confirmed reservation. The clerk spoke broken English and told us to go the a room on the 2nd floor...I asked for confirmation that this was pet-friendly and he stated yes. We were going into our room and he indicated we had to go to a room on the first floor with pets.  That was the first inconvenience. There were only 5 parking spaces in front of the hotel (plus a few handicapped) and the clerk was parked in one of them. He had the hood up on his car doing some work and when I asked him were guests are supposed to park, he pointed to an abandoned lot next to a Motel 6 adjacent to the hotel. When I asked him why staff were parked up front and guests were shuffled to the back, he ran back into the hotel. We woke up the next morning to a rainstorm and I have attached pictures of the outcome. This hotel is unclean and the obvious lack of repairs shows the lack of interest in customer service.  Don't waste your time/money at this neglected hotel.  The pictures they posted on line are deceiving!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r488066835-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>488066835</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Pet friendly hotel without breaking the bank</t>
+  </si>
+  <si>
+    <t>We were moving from GA to TX and had to stop for the night. We called all over the area and stopped in here on a whim. The staff was very friendly and the hotel was quiet.The only concern was the stains on the bed skirt. It looked like it was occupied by pet owners in the past and the bedskirt was urinated on.Great rates for the night and very nice,comfortable beds!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>We were moving from GA to TX and had to stop for the night. We called all over the area and stopped in here on a whim. The staff was very friendly and the hotel was quiet.The only concern was the stains on the bed skirt. It looked like it was occupied by pet owners in the past and the bedskirt was urinated on.Great rates for the night and very nice,comfortable beds!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r485150486-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -330,9 +482,6 @@
     <t>They took us in last minute when days inn cancelled our reservation after having it for a week. They needed a credit card for a deposit, but I let my son use mine for prom. So they took a cash deposit instead. They were very nice, rooms were nice and clean. They had all doors locked until around 9am. Needed just your room card to get in. They handled my loud annoying brother very well. There is a young man that works in the morning that is a very hard worker and even tho he was busy fixing the breakfast buffet among other things he very politely stopped what he was doing to accommodate my annoying brother. The breakfast was better than a lot of hotel breakfasts. Wasn't the same both mornings I was there. I will definitely go back next time I'm staying in Winnie. MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded May 20, 2017</t>
   </si>
   <si>
@@ -396,6 +545,57 @@
     <t>I was disappointed with this Holiday Inn.  I felt the cleanliness of the room, breakfast and atmosphere were not what I am accustomed to with a Holiday Inn.  We had an Emotional Support Dog with us and though the management allowed(by law I believe that had to)  us to have the dog I felt like they were not really thrilled about it.  We traveled from Ohio and this was the only hotel that actually read the letter from the doctor and then made us sign a paper about the dog and then the day we checked out they had to come in and inspect the room to make sure the dog hadn't done any damage.  I felt a bit insulted and I for one will not be staying there againMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r466171990-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>466171990</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel in a Small Town</t>
+  </si>
+  <si>
+    <t>I stayed here recently and booked at the last moment.Upon arrival I was greeted by a friendly front desk clerk and I received a room upgrade without the need to ask. I will add it was due to my loyalty status but it was nice to be informed of the upgrade without needing to ask.The room was very clean and tidy as one would expect with a Holiday Inn. Nice cold and quiet A/C. I will say the bed was a little soft for my taste but everyone has their preferences.Breakfast was typical for a Holiday Inn Express, it was fresh and plentiful. It was one of the busiest breakfast areas I have seen in awhile. It seemed like almost every table was taken. Always a good sign when people are eating there.Overall it was a nice stay and I will stay here again when I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Winnie H, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here recently and booked at the last moment.Upon arrival I was greeted by a friendly front desk clerk and I received a room upgrade without the need to ask. I will add it was due to my loyalty status but it was nice to be informed of the upgrade without needing to ask.The room was very clean and tidy as one would expect with a Holiday Inn. Nice cold and quiet A/C. I will say the bed was a little soft for my taste but everyone has their preferences.Breakfast was typical for a Holiday Inn Express, it was fresh and plentiful. It was one of the busiest breakfast areas I have seen in awhile. It seemed like almost every table was taken. Always a good sign when people are eating there.Overall it was a nice stay and I will stay here again when I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r454726188-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>454726188</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Best hidden small gem, Winnie, TX</t>
+  </si>
+  <si>
+    <t>Staff takes a personal interest in you and your comfort and enjoyment.  Very clean!  Attention to food and breakfast area was notable....had new items before much larger sister hotels.  This was not our first stay at this hotel, and We will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Winnie H, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Staff takes a personal interest in you and your comfort and enjoyment.  Very clean!  Attention to food and breakfast area was notable....had new items before much larger sister hotels.  This was not our first stay at this hotel, and We will definitely stay here again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r445281648-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -468,6 +668,45 @@
     <t>First of all the staff was very friendly and helpful. The bed was amazingly comfortable and of course, the cinnamon rolls were warm and tasty! There's an outdoor pool,a little on the small side, but nice little area. The only bad thing is the elevator is slow and sounds like is going to quit any moment. I would stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r404556932-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>404556932</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>After a long day of travels this hotel was very nice. We opted for the Jacuzzi, which made our stay very enjoyable. Nice friendly staff that is very accommodating. Nice pool and patio area. Rooms were extremely clean and fresh. A very nice nights rest.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r386023714-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>386023714</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Comfort and cleanliness</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel whilst birdwatching in the local area.  As you would expect with the Holiday Inn Express brand it is not five star luxury but is clean and efficient.  The Rooms were of a decent size with comfortable Beds and modern furnishings.  Free WiFi.  Bathrooms were well equipped with effective  Showers. Pretty quiet at night.  The breakfasts were, for the Express Inn Chain, surprisingly good (UK version would only have three cooked items but choice was more extensive, including Porridge).  Coffee from dispensing flasks but tasted decent enough.  There was a small but efficient Gym Room (no-one used it apart from myself).  Close to the main Highway network so easy to find.   A good no frills choice, especially for the spring Ornithologist!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel whilst birdwatching in the local area.  As you would expect with the Holiday Inn Express brand it is not five star luxury but is clean and efficient.  The Rooms were of a decent size with comfortable Beds and modern furnishings.  Free WiFi.  Bathrooms were well equipped with effective  Showers. Pretty quiet at night.  The breakfasts were, for the Express Inn Chain, surprisingly good (UK version would only have three cooked items but choice was more extensive, including Porridge).  Coffee from dispensing flasks but tasted decent enough.  There was a small but efficient Gym Room (no-one used it apart from myself).  Close to the main Highway network so easy to find.   A good no frills choice, especially for the spring Ornithologist!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r378288084-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -519,7 +758,40 @@
     <t>I had a 6 man crew here for a week.  Good place.  Breakfast is above average for motel eats.  Owner is on site constantly.  Pool is good.  Quiet place.  We had no loud noise in the evenings or problematic guests making trouble.  Good parking out back.  They run a tight ship here.  Will stay again.</t>
   </si>
   <si>
-    <t>April 2016</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r365280692-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>365280692</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>Stayed here for several nights. Friendly staff, good hot breakfast, clean, and comfortable rooms. Location was easy to get in and out of. Several close eating establishments. Close to several excellent birding destinations. Would definitely stay here again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r357166078-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>357166078</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>The best place to stay</t>
+  </si>
+  <si>
+    <t>Room had everything we needed. Refrigerator, microwave, big TV, desk, lounge chair, hair dryer, etc.  Bed was comfortable. Breakfast was better than most, with premade omelets, sausage, biscuits and gravy, pancakes, plus all the usuals. Small exercise room, but I was the only one in it and it offered a variety of machines and weights.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r355446031-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
@@ -570,6 +842,54 @@
     <t>We were looking for a convenient stop on our way to Galveston, and this was perfect. The service was great too. We upgraded to a suite which gave the four of us room to spread out. The only issue we encountered was difficulty closing the bathroom door.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r342822581-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>342822581</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Not what it seems</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on Jan 4th while inroute to AZ.  When we arrived the hotel seemed very nice on the outside but the inside was another story.  When we got into the room we found stains on the carpet, paint peeling off the walls around the windows and I'm not talking about little chips.  Mold and fungus around the tub/shower, the sink faucet was so loose that it felt like it was going to come off in your hand.  Went back to front desk, no one around and the door to the room was so flemsy that we sleep with a piece of furniture in front of it to feel somewhat safe.  At 0130am we could not take it anymore and left the hotel, checking out and not being asked why.  When I called holiday Inn corporate offices I was told someone would look into it but no one has called me back.  Also I have tried to file a review online through their website and have been rejected both times.  Both times I have been told that I mentioned another hotel which was another Holiday Inn and was not there the second time.  Live and learn I was told growing up and I diffently learned about HOLIDAY INNMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on Jan 4th while inroute to AZ.  When we arrived the hotel seemed very nice on the outside but the inside was another story.  When we got into the room we found stains on the carpet, paint peeling off the walls around the windows and I'm not talking about little chips.  Mold and fungus around the tub/shower, the sink faucet was so loose that it felt like it was going to come off in your hand.  Went back to front desk, no one around and the door to the room was so flemsy that we sleep with a piece of furniture in front of it to feel somewhat safe.  At 0130am we could not take it anymore and left the hotel, checking out and not being asked why.  When I called holiday Inn corporate offices I was told someone would look into it but no one has called me back.  Also I have tried to file a review online through their website and have been rejected both times.  Both times I have been told that I mentioned another hotel which was another Holiday Inn and was not there the second time.  Live and learn I was told growing up and I diffently learned about HOLIDAY INNMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r323467648-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>323467648</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>Contractor Friendly</t>
+  </si>
+  <si>
+    <t>Not really accustom to TX roads, this place fairly easy to get to, just have to remember where your at getting out!  That said, property is well maintained.  When checking in, the clerk was courteous and helpful.  Requested to switch rooms due to an extended stay due to the mattress in the first room being uncomfortable and sagging, but the 2nd room much better and the ambiance in the 2nd seemed more comfortable.  No complaints with the microwave, tv and extra outlets for charging 'toys'.  Tables were a little wobbly computing on but no big deal.  Internet though is horrible and did most of my reporting via smartphone hotspot.  Even phone conversations seemed to be better if outside and walking around the parking lot.  I do tip my hat to these folks though as even though breakfast is posted for 6am start, they seemed to have out every morning by 5:40am (and the hot coffee even earlier) to allow early risers to get a good meal before heading out at 6am.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Not really accustom to TX roads, this place fairly easy to get to, just have to remember where your at getting out!  That said, property is well maintained.  When checking in, the clerk was courteous and helpful.  Requested to switch rooms due to an extended stay due to the mattress in the first room being uncomfortable and sagging, but the 2nd room much better and the ambiance in the 2nd seemed more comfortable.  No complaints with the microwave, tv and extra outlets for charging 'toys'.  Tables were a little wobbly computing on but no big deal.  Internet though is horrible and did most of my reporting via smartphone hotspot.  Even phone conversations seemed to be better if outside and walking around the parking lot.  I do tip my hat to these folks though as even though breakfast is posted for 6am start, they seemed to have out every morning by 5:40am (and the hot coffee even earlier) to allow early risers to get a good meal before heading out at 6am.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r309372237-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -645,6 +965,54 @@
     <t>Hotel is about 20 miles from the coast and we needed a place to stay for a day of beach combing. It was very clean and well maintained. Swimming pool was great. Breakfast was about average but kept well stocked. A very pleasant stay and we will returnMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r280907029-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>280907029</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Will never go back, will never refer.</t>
+  </si>
+  <si>
+    <t>This place was terrible. I have already let the brand know. Too many bad things to say so I will not go much into detail. Service was horrible,my bed was filthy,  ac in my room did not work, furniture was uncomfortable and not maintained and room was not in the best condition. I had driven 4 hours that morning to go into town for graduation. I wanted to get in my room, shower and sleep to drive back in the morning. It was so bad, that even though I was very tired, I drove 4 hours all the way back home, without even staying an hour! I was so tired and I just could not force myself to stay there. I had looked at reviews and thought it would be ok, but I was wrong. I should have looked at ranking instead, my mistake. There is a reason why in a small town with 8 hotels and only two good brand names that this one is number 7, and ranked below even lower flags, it is horrible. Stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>NickAGM, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded June 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2015</t>
+  </si>
+  <si>
+    <t>This place was terrible. I have already let the brand know. Too many bad things to say so I will not go much into detail. Service was horrible,my bed was filthy,  ac in my room did not work, furniture was uncomfortable and not maintained and room was not in the best condition. I had driven 4 hours that morning to go into town for graduation. I wanted to get in my room, shower and sleep to drive back in the morning. It was so bad, that even though I was very tired, I drove 4 hours all the way back home, without even staying an hour! I was so tired and I just could not force myself to stay there. I had looked at reviews and thought it would be ok, but I was wrong. I should have looked at ranking instead, my mistake. There is a reason why in a small town with 8 hotels and only two good brand names that this one is number 7, and ranked below even lower flags, it is horrible. Stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r280011724-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>280011724</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Needs free weights or some weight machines!!</t>
+  </si>
+  <si>
+    <t>Before I book a room one of my priorities other than cleanliness is the workout facility available. This is Not a place to stay if you are looking to get in a decent workout. Spacious room to have these amenities but very empty. Very frustrating. MoreShow less</t>
+  </si>
+  <si>
+    <t>diffrentsauce, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Before I book a room one of my priorities other than cleanliness is the workout facility available. This is Not a place to stay if you are looking to get in a decent workout. Spacious room to have these amenities but very empty. Very frustrating. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r278284774-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -660,12 +1028,6 @@
     <t>I am currently staying at this hotel for the 2nd night because I have no other option. First off, the hotel smells musty,old with a hint of animal/smoke funk. It's a property that needs renovation and just a real good cleaning! Our room - carpet had several spots as well as dirt in the corners. Worst was the bathroom- the shower curtain was filthy and I had to get the front desk to change it -they did. After I noticed the shower curtain, I questioned the cleanliness of the bed linen- soniasked at the very least if I could get new pillow cases. The front desk guy said NO. He said they were clean - really???? I said, how do you know, he said "because they change the linen and clean the room once a day." I said "just like they cleaned the bathroom and shower curtain?" He said "NO pillowcase until morning." I could not believe it. What kind of customer service is that?? My advise to anyone coming to Beaumont area - NEVER stay at this hotel. FYI- we went to Walmart and purchased our own pillowcase.MoreShow less</t>
   </si>
   <si>
-    <t>diffrentsauce, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded June 15, 2015</t>
-  </si>
-  <si>
-    <t>Responded June 15, 2015</t>
-  </si>
-  <si>
     <t>I am currently staying at this hotel for the 2nd night because I have no other option. First off, the hotel smells musty,old with a hint of animal/smoke funk. It's a property that needs renovation and just a real good cleaning! Our room - carpet had several spots as well as dirt in the corners. Worst was the bathroom- the shower curtain was filthy and I had to get the front desk to change it -they did. After I noticed the shower curtain, I questioned the cleanliness of the bed linen- soniasked at the very least if I could get new pillow cases. The front desk guy said NO. He said they were clean - really???? I said, how do you know, he said "because they change the linen and clean the room once a day." I said "just like they cleaned the bathroom and shower curtain?" He said "NO pillowcase until morning." I could not believe it. What kind of customer service is that?? My advise to anyone coming to Beaumont area - NEVER stay at this hotel. FYI- we went to Walmart and purchased our own pillowcase.More</t>
   </si>
   <si>
@@ -720,6 +1082,57 @@
     <t>Great bed and shower, Clean and attractive. The Free wifi is what you get for the price and is a common flaw with Holiday Inn express. The wifi is slow and it is impossible to stream a movie in the room.  When I moved to the common area of the hotel the wifi worked well.Breakfast was standard Holiday Inn fare.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r257512311-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>257512311</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Just a quick stop...</t>
+  </si>
+  <si>
+    <t>I was traveling from Savannah, Ga to Fort Hood, Texas. I tried to make it all the way, but got really tired. I stopped at this hotel. It was around 10pm. I was greeted promptly by the staff member on duty. He quickly got me checked in, and I was off to my room. The room was very clean, and it looked like the hotel had been updated. The bathroom was immaculate. The room was a very good size. The breakfast was good...especially the cinnamon rolls. Coffee was also very good. I would definitely stay there again if needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>diffrentsauce, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>I was traveling from Savannah, Ga to Fort Hood, Texas. I tried to make it all the way, but got really tired. I stopped at this hotel. It was around 10pm. I was greeted promptly by the staff member on duty. He quickly got me checked in, and I was off to my room. The room was very clean, and it looked like the hotel had been updated. The bathroom was immaculate. The room was a very good size. The breakfast was good...especially the cinnamon rolls. Coffee was also very good. I would definitely stay there again if needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r255449217-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>255449217</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headed for vacation </t>
+  </si>
+  <si>
+    <t>We stopped off here while heading to Galveston for a cruise vacation. The hotel was easy to get to off the interstate and once inside it was nice and clean. The only complaint I would say was that night we arrived was about 9:00 pm. And when we went in there was only one worker, he was not American, and that was ok but there were us and several other guys trying to ck in. It took a long time. I just thought it was because it was late. Well the next morning we got up and went down for breakfast. It was good and there was a wide variety but there was again only one person at the front desk and he was the only person I seen. He was also making sure food was all out. It was a clean hotel and the room smelled nice.  I would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>diffrentsauce, Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>We stopped off here while heading to Galveston for a cruise vacation. The hotel was easy to get to off the interstate and once inside it was nice and clean. The only complaint I would say was that night we arrived was about 9:00 pm. And when we went in there was only one worker, he was not American, and that was ok but there were us and several other guys trying to ck in. It took a long time. I just thought it was because it was late. Well the next morning we got up and went down for breakfast. It was good and there was a wide variety but there was again only one person at the front desk and he was the only person I seen. He was also making sure food was all out. It was a clean hotel and the room smelled nice.  I would recommend.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r232073465-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -798,6 +1211,60 @@
     <t>Stayed here the night before we got our beach house on Crystal Beach.  At first arrival the lobby had a very strong odor of cooked food and very unpleasant.  The front desk clerk was not very welcoming, just straight to business.  The room was decently clean not thing great but did not gross me out.  Overall I would rank this hotel poor but, the price of 89 dollars saves it to an average hotel for 89 dollars.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r210430899-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>210430899</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Rooms starting to get dirty and run down</t>
+  </si>
+  <si>
+    <t>I stayed here a little over a year ago and the place was great. Stayed here last night and the entire place is starting to go down hill.  Hotel was dirty along with the rooms.  Not the typical Holiday Inn Express experience.  My shower curtain was missing.  I told the person at tje front desk and he was not concerned.  We also told him we were tax exempt and signed the agreement with the gov rate on it.  We get our receipt in the morning and taxes were added. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded June 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here a little over a year ago and the place was great. Stayed here last night and the entire place is starting to go down hill.  Hotel was dirty along with the rooms.  Not the typical Holiday Inn Express experience.  My shower curtain was missing.  I told the person at tje front desk and he was not concerned.  We also told him we were tax exempt and signed the agreement with the gov rate on it.  We get our receipt in the morning and taxes were added. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r207530442-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>207530442</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Such a nice hotel!</t>
+  </si>
+  <si>
+    <t>This hotel was clean and new and sparkly and the pool was very pretty.  The shower was great.  The breakfast was really good.  There were eggs, and sausage and pancakes.  Of course it's built in the middle of a cow pasture and there is really not much of anything in Winnie.  But I would stay there again if I needed to spend the night in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>diffrentsauce, General Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was clean and new and sparkly and the pool was very pretty.  The shower was great.  The breakfast was really good.  There were eggs, and sausage and pancakes.  Of course it's built in the middle of a cow pasture and there is really not much of anything in Winnie.  But I would stay there again if I needed to spend the night in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r203779587-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -813,9 +1280,6 @@
     <t>The room was clean and quiet.  Bathroom was nice and clean and everything worked in the room.  The breakfast was hot and well stocked.  We did have to ring a bell to get service when we checked in, but the clerk may have been dealing with other things.   We would definitely stsy here again if in the area.</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r201547846-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -834,9 +1298,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r199933272-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -861,6 +1322,45 @@
     <t>The air conditioner/fan in the room was loud and when turned off the room got too hot and you could hear the freeway traffic. In addition, the bed was not that comfortable.  I would not stay at this hotel again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r194572346-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>194572346</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Good Hotel, Good Price</t>
+  </si>
+  <si>
+    <t>As a platinum level member of the IC Hotels priority club, i stay at quite a few IC properties during my travels.  One of the reasons I choose IC hotels in general and Holiday Inn Expresses in particular is the fact that I've had very few bad experiences with the brand.  This property is no exception.  The hotel is located about an hour east of Houston on I-10 in the small town of Winnie so you don't have to put up with the hassles of big city traffic.  The person at the front desk was friendly, the beds were comfortable, the hotel was quiet, the price was reasonable for the area, and all of the facilities in the hotel were clean.  That's about all that I can ask of a hotel.  I would stay here again and I recommend it to other travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>As a platinum level member of the IC Hotels priority club, i stay at quite a few IC properties during my travels.  One of the reasons I choose IC hotels in general and Holiday Inn Expresses in particular is the fact that I've had very few bad experiences with the brand.  This property is no exception.  The hotel is located about an hour east of Houston on I-10 in the small town of Winnie so you don't have to put up with the hassles of big city traffic.  The person at the front desk was friendly, the beds were comfortable, the hotel was quiet, the price was reasonable for the area, and all of the facilities in the hotel were clean.  That's about all that I can ask of a hotel.  I would stay here again and I recommend it to other travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r175536488-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>175536488</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>On the way stay</t>
+  </si>
+  <si>
+    <t>Needed a pet friendly hotel since we are relocating.  Have stayed at some bad ones in the past but this place was outstanding.  Clean, friendly, no hassles.  Asked for a good restaurant to have and went to a Cajun place around the corner, outstanding.  I would highly recommend staying here.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r166804020-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1427,48 @@
     <t>Reception said cxl policy 6pm day of booked on holiday inn website. Called to cxl, would not let us cancel bc it was a one night deposit rate. We tried to cxl again bc rate was for 2 nights. Charged us for both nights even though deposit was for one night only. Owner refused to refund. We have to dispute second night with cc co. This was for hurricane evacuation. We called the hotel the night that should have been our first night and they still had availability. The Holiday Inn did not turn anyone away because they were holding our room. The owner was rude, mean and terrible. I am upset with the Holiday Inn brand for not allowing us to dispute this matter with them directly, instead they made us deal with this snake business owner.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r135073441-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>135073441</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>Clean, Quiet Place for a Stopover</t>
+  </si>
+  <si>
+    <t>This is a clean and quiet place for a stopover.  The outdoor swimming pool is a treat on a hot summer day.  My room had a refrigerator and microwave, and I noticed the hotel also has a coin-op guest laundry available.This was a reasonable value for the price paid.  If I am passing through this area again, I will consider staying here.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r132404738-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>132404738</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Needs work!</t>
+  </si>
+  <si>
+    <t>First they screwed up my reservation, I was reserved through employer for an extended stay. Some of the rooms AC/Heat units have some kind of mold growing in them. The pool is cloudy and needs bugs and leaves cleaned out....... Laundry room for guests is only one washer and one dryer, average cost is $3.00 for a load of laundry. The Laundry room was disgusting, smelled bad and appeared to not have been cleaned in quite some time....MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Winnie, responded to this reviewResponded July 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2012</t>
+  </si>
+  <si>
+    <t>First they screwed up my reservation, I was reserved through employer for an extended stay. Some of the rooms AC/Heat units have some kind of mold growing in them. The pool is cloudy and needs bugs and leaves cleaned out....... Laundry room for guests is only one washer and one dryer, average cost is $3.00 for a load of laundry. The Laundry room was disgusting, smelled bad and appeared to not have been cleaned in quite some time....More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r118752491-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1518,39 @@
   </si>
   <si>
     <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r115032192-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>115032192</t>
+  </si>
+  <si>
+    <t>07/04/2011</t>
+  </si>
+  <si>
+    <t>just ok for HI express</t>
+  </si>
+  <si>
+    <t>Not as fresh as most Holiday Inn Express.  not sure if it was scented candles but just didnt have that usual clean smell. We arrived very late.  The attendant took several minutes to unlock the door.  We got in the bed and he called to see if the room was ok??? @ 12:30 am??  The room looked clean, the bed was fine, very quiet  and bfast was good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r105395860-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>105395860</t>
+  </si>
+  <si>
+    <t>04/25/2011</t>
+  </si>
+  <si>
+    <t>Very Clean</t>
+  </si>
+  <si>
+    <t>We just stayed here one night as we were passing through.  Hotel was very nice &amp; clean, front desk clerk also very professional.  Would definitely stay here again if ever passing through Winnie &amp; need a nice clean place to sleep.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1197378-r85581060-Holiday_Inn_Express_Hotel_Suites_Winnie-Winnie_Texas.html</t>
@@ -1552,7 +2127,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1569,14 +2144,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1592,52 +2163,52 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" t="s">
-        <v>64</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1653,58 +2224,52 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1720,58 +2285,52 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>62</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -1787,52 +2346,58 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
       <c r="O6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1848,34 +2413,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1886,10 +2451,14 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -1905,41 +2474,45 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>99</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>100</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>101</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>102</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>103</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>104</v>
       </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s"/>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1987,19 +2560,21 @@
         <v>112</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
         <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
         <v>4</v>
       </c>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -2052,24 +2627,20 @@
         <v>121</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
         <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -2117,26 +2688,20 @@
         <v>130</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -2159,52 +2724,58 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>132</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>133</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>134</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>135</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>136</v>
       </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>137</v>
-      </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
         <v>138</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>139</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -2220,34 +2791,34 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>141</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>142</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>143</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>144</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>145</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>146</v>
-      </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2259,13 +2830,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
         <v>147</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>148</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -2281,34 +2852,34 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>150</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>151</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>152</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>153</v>
       </c>
-      <c r="L14" t="s">
-        <v>154</v>
-      </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2319,8 +2890,12 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
       <c r="Y14" t="s">
         <v>156</v>
       </c>
@@ -2362,24 +2937,32 @@
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
@@ -2395,7 +2978,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2404,45 +2987,47 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
       </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>172</v>
+      </c>
+      <c r="X16" t="s">
+        <v>173</v>
+      </c>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
@@ -2458,7 +3043,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2467,39 +3052,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
@@ -2515,7 +3108,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2524,39 +3117,47 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s">
+        <v>190</v>
+      </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
@@ -2572,7 +3173,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2581,39 +3182,45 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
@@ -2629,7 +3236,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2638,22 +3245,26 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>203</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
@@ -2664,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="X20" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
@@ -2686,7 +3297,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2695,49 +3306,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s">
-        <v>90</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="X21" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
@@ -2753,7 +3358,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2762,39 +3367,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+      <c r="N22" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>206</v>
-      </c>
-      <c r="X22" t="s">
-        <v>207</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
@@ -2810,7 +3419,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2819,43 +3428,41 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>214</v>
-      </c>
-      <c r="X23" t="s">
-        <v>215</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
@@ -2871,7 +3478,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2880,25 +3487,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2909,14 +3516,10 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>223</v>
-      </c>
-      <c r="X24" t="s">
-        <v>224</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
@@ -2932,7 +3535,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2941,49 +3544,39 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>231</v>
-      </c>
-      <c r="X25" t="s">
-        <v>232</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -2999,7 +3592,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3008,49 +3601,45 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>240</v>
-      </c>
-      <c r="X26" t="s">
-        <v>241</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
@@ -3066,7 +3655,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3075,47 +3664,37 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" t="s">
+        <v>251</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>1</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>248</v>
-      </c>
-      <c r="X27" t="s">
-        <v>249</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
         <v>250</v>
       </c>
@@ -3133,7 +3712,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3142,47 +3721,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>257</v>
-      </c>
-      <c r="X28" t="s">
-        <v>258</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
@@ -3198,58 +3773,48 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
         <v>260</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>261</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>262</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>263</v>
       </c>
-      <c r="L29" t="s">
-        <v>264</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>265</v>
-      </c>
       <c r="O29" t="s">
-        <v>90</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30">
@@ -3265,58 +3830,48 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" t="s">
         <v>266</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>267</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>268</v>
       </c>
-      <c r="K30" t="s">
-        <v>269</v>
-      </c>
-      <c r="L30" t="s">
-        <v>270</v>
-      </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s">
-        <v>272</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31">
@@ -3332,62 +3887,48 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K31" t="s">
+        <v>272</v>
+      </c>
+      <c r="L31" t="s">
         <v>273</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>274</v>
-      </c>
-      <c r="J31" t="s">
-        <v>275</v>
-      </c>
-      <c r="K31" t="s">
-        <v>276</v>
-      </c>
-      <c r="L31" t="s">
-        <v>277</v>
-      </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>278</v>
-      </c>
-      <c r="X31" t="s">
-        <v>279</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
@@ -3403,7 +3944,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3412,45 +3953,39 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>279</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33">
@@ -3466,62 +4001,58 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
         <v>286</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>287</v>
-      </c>
-      <c r="J33" t="s">
-        <v>288</v>
-      </c>
-      <c r="K33" t="s">
-        <v>289</v>
-      </c>
-      <c r="L33" t="s">
-        <v>290</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="s">
-        <v>291</v>
-      </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
         <v>3</v>
       </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="X33" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Y33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34">
@@ -3537,7 +4068,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3546,16 +4077,16 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
@@ -3572,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="X34" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Y34" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35">
@@ -3594,54 +4125,58 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>299</v>
+      </c>
+      <c r="J35" t="s">
+        <v>300</v>
+      </c>
+      <c r="K35" t="s">
+        <v>301</v>
+      </c>
+      <c r="L35" t="s">
+        <v>302</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
         <v>303</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
-        <v>304</v>
-      </c>
-      <c r="J35" t="s">
-        <v>305</v>
-      </c>
-      <c r="K35" t="s">
-        <v>306</v>
-      </c>
-      <c r="L35" t="s">
-        <v>307</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
       <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>304</v>
+      </c>
+      <c r="X35" t="s">
+        <v>305</v>
+      </c>
       <c r="Y35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36">
@@ -3657,56 +4192,48 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>307</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
         <v>308</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>309</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>310</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>311</v>
-      </c>
-      <c r="L36" t="s">
-        <v>312</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
-      <c r="N36" t="s">
-        <v>313</v>
-      </c>
-      <c r="O36" t="s">
-        <v>90</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>312</v>
+      </c>
+      <c r="X36" t="s">
+        <v>313</v>
+      </c>
       <c r="Y36" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
@@ -3722,7 +4249,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3731,45 +4258,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="O37" t="s">
-        <v>90</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
       <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>320</v>
+      </c>
+      <c r="X37" t="s">
+        <v>321</v>
+      </c>
       <c r="Y37" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38">
@@ -3785,7 +4316,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3794,49 +4325,39 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J38" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
-      <c r="N38" t="s">
-        <v>325</v>
-      </c>
-      <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>1</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>328</v>
+      </c>
+      <c r="X38" t="s">
+        <v>329</v>
+      </c>
       <c r="Y38" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39">
@@ -3852,7 +4373,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3861,49 +4382,1737 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J39" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K39" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="O39" t="s">
         <v>53</v>
       </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>328</v>
+      </c>
+      <c r="X39" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>337</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>338</v>
+      </c>
+      <c r="J40" t="s">
+        <v>339</v>
+      </c>
+      <c r="K40" t="s">
+        <v>340</v>
+      </c>
+      <c r="L40" t="s">
+        <v>341</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>342</v>
+      </c>
+      <c r="O40" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>343</v>
+      </c>
+      <c r="X40" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>347</v>
+      </c>
+      <c r="J41" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" t="s">
+        <v>349</v>
+      </c>
+      <c r="L41" t="s">
+        <v>350</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>342</v>
+      </c>
+      <c r="O41" t="s">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
         <v>5</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>351</v>
+      </c>
+      <c r="X41" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" t="s">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s">
+        <v>358</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>359</v>
+      </c>
+      <c r="O42" t="s">
+        <v>251</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>360</v>
+      </c>
+      <c r="X42" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>368</v>
+      </c>
+      <c r="X43" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>371</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>372</v>
+      </c>
+      <c r="J44" t="s">
+        <v>373</v>
+      </c>
+      <c r="K44" t="s">
+        <v>374</v>
+      </c>
+      <c r="L44" t="s">
+        <v>375</v>
+      </c>
+      <c r="M44" t="n">
         <v>3</v>
       </c>
-      <c r="S39" t="n">
+      <c r="N44" t="s">
+        <v>376</v>
+      </c>
+      <c r="O44" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>377</v>
+      </c>
+      <c r="X44" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>381</v>
+      </c>
+      <c r="J45" t="s">
+        <v>382</v>
+      </c>
+      <c r="K45" t="s">
+        <v>383</v>
+      </c>
+      <c r="L45" t="s">
+        <v>384</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
         <v>5</v>
       </c>
-      <c r="T39" t="s"/>
-      <c r="U39" t="n">
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>385</v>
+      </c>
+      <c r="X45" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>388</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>389</v>
+      </c>
+      <c r="J46" t="s">
+        <v>390</v>
+      </c>
+      <c r="K46" t="s">
+        <v>391</v>
+      </c>
+      <c r="L46" t="s">
+        <v>392</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>393</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>394</v>
+      </c>
+      <c r="X46" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>397</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>398</v>
+      </c>
+      <c r="J47" t="s">
+        <v>399</v>
+      </c>
+      <c r="K47" t="s">
+        <v>400</v>
+      </c>
+      <c r="L47" t="s">
+        <v>401</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>402</v>
+      </c>
+      <c r="O47" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>403</v>
+      </c>
+      <c r="X47" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>407</v>
+      </c>
+      <c r="J48" t="s">
+        <v>408</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
         <v>5</v>
       </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s">
-        <v>333</v>
+      <c r="N48" t="s">
+        <v>411</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>412</v>
+      </c>
+      <c r="X48" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>415</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>416</v>
+      </c>
+      <c r="J49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K49" t="s">
+        <v>418</v>
+      </c>
+      <c r="L49" t="s">
+        <v>419</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>411</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>420</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>421</v>
+      </c>
+      <c r="J50" t="s">
+        <v>422</v>
+      </c>
+      <c r="K50" t="s">
+        <v>423</v>
+      </c>
+      <c r="L50" t="s">
+        <v>424</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>425</v>
+      </c>
+      <c r="O50" t="s">
+        <v>104</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>426</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>427</v>
+      </c>
+      <c r="J51" t="s">
+        <v>428</v>
+      </c>
+      <c r="K51" t="s">
+        <v>429</v>
+      </c>
+      <c r="L51" t="s">
+        <v>430</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>425</v>
+      </c>
+      <c r="O51" t="s">
+        <v>76</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>431</v>
+      </c>
+      <c r="X51" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>434</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>435</v>
+      </c>
+      <c r="J52" t="s">
+        <v>436</v>
+      </c>
+      <c r="K52" t="s">
+        <v>437</v>
+      </c>
+      <c r="L52" t="s">
+        <v>438</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>439</v>
+      </c>
+      <c r="O52" t="s">
+        <v>76</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>441</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>442</v>
+      </c>
+      <c r="J53" t="s">
+        <v>443</v>
+      </c>
+      <c r="K53" t="s">
+        <v>444</v>
+      </c>
+      <c r="L53" t="s">
+        <v>445</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>446</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>447</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>448</v>
+      </c>
+      <c r="J54" t="s">
+        <v>449</v>
+      </c>
+      <c r="K54" t="s">
+        <v>450</v>
+      </c>
+      <c r="L54" t="s">
+        <v>451</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>452</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>453</v>
+      </c>
+      <c r="J55" t="s">
+        <v>454</v>
+      </c>
+      <c r="K55" t="s">
+        <v>455</v>
+      </c>
+      <c r="L55" t="s">
+        <v>456</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>457</v>
+      </c>
+      <c r="O55" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>458</v>
+      </c>
+      <c r="X55" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>462</v>
+      </c>
+      <c r="J56" t="s">
+        <v>463</v>
+      </c>
+      <c r="K56" t="s">
+        <v>464</v>
+      </c>
+      <c r="L56" t="s">
+        <v>465</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>466</v>
+      </c>
+      <c r="X56" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>469</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>470</v>
+      </c>
+      <c r="J57" t="s">
+        <v>471</v>
+      </c>
+      <c r="K57" t="s">
+        <v>472</v>
+      </c>
+      <c r="L57" t="s">
+        <v>473</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>474</v>
+      </c>
+      <c r="O57" t="s">
+        <v>251</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>475</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>476</v>
+      </c>
+      <c r="J58" t="s">
+        <v>477</v>
+      </c>
+      <c r="K58" t="s">
+        <v>478</v>
+      </c>
+      <c r="L58" t="s">
+        <v>479</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>474</v>
+      </c>
+      <c r="O58" t="s">
+        <v>67</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>480</v>
+      </c>
+      <c r="X58" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>483</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>484</v>
+      </c>
+      <c r="J59" t="s">
+        <v>485</v>
+      </c>
+      <c r="K59" t="s">
+        <v>486</v>
+      </c>
+      <c r="L59" t="s">
+        <v>487</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>488</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>489</v>
+      </c>
+      <c r="J60" t="s">
+        <v>490</v>
+      </c>
+      <c r="K60" t="s">
+        <v>491</v>
+      </c>
+      <c r="L60" t="s">
+        <v>492</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>493</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>494</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>495</v>
+      </c>
+      <c r="J61" t="s">
+        <v>496</v>
+      </c>
+      <c r="K61" t="s">
+        <v>497</v>
+      </c>
+      <c r="L61" t="s">
+        <v>498</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>499</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>500</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>501</v>
+      </c>
+      <c r="J62" t="s">
+        <v>502</v>
+      </c>
+      <c r="K62" t="s">
+        <v>503</v>
+      </c>
+      <c r="L62" t="s">
+        <v>504</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>499</v>
+      </c>
+      <c r="O62" t="s">
+        <v>76</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>505</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>506</v>
+      </c>
+      <c r="J63" t="s">
+        <v>507</v>
+      </c>
+      <c r="K63" t="s">
+        <v>508</v>
+      </c>
+      <c r="L63" t="s">
+        <v>509</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>510</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>511</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>512</v>
+      </c>
+      <c r="J64" t="s">
+        <v>513</v>
+      </c>
+      <c r="K64" t="s">
+        <v>514</v>
+      </c>
+      <c r="L64" t="s">
+        <v>515</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>516</v>
+      </c>
+      <c r="O64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59157</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>518</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>519</v>
+      </c>
+      <c r="J65" t="s">
+        <v>520</v>
+      </c>
+      <c r="K65" t="s">
+        <v>521</v>
+      </c>
+      <c r="L65" t="s">
+        <v>522</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>523</v>
+      </c>
+      <c r="O65" t="s">
+        <v>67</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
